--- a/TestCases/Patient_Features.xlsx
+++ b/TestCases/Patient_Features.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shree\OneDrive\Desktop\MyFinalProject\sdd13\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E3E2AB-DD8B-4733-9888-E7E9A4758507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DBB4E5-A168-4284-8F21-3DB34673F44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C027FF1E-997B-4EFD-A6AE-4D808D54C2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Booking Appointment" sheetId="1" r:id="rId1"/>
-    <sheet name="View Prescription" sheetId="2" r:id="rId2"/>
-    <sheet name="Profile" sheetId="3" r:id="rId3"/>
+    <sheet name="Profile" sheetId="3" r:id="rId2"/>
+    <sheet name="Prescription" sheetId="2" r:id="rId3"/>
+    <sheet name="Medical Records" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -56,13 +57,163 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>PC_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Appointment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appointment Booked Successfully </t>
+  </si>
+  <si>
+    <t>The appointment should be booked successfully by filling the required details.</t>
+  </si>
+  <si>
+    <t>The appointment is booked.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PC_002</t>
+  </si>
+  <si>
+    <t>PC_003</t>
+  </si>
+  <si>
+    <t>PC_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed Appointment Booking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slots not available for particular date </t>
+  </si>
+  <si>
+    <t>Minor Disease Article</t>
+  </si>
+  <si>
+    <t>PC_005</t>
+  </si>
+  <si>
+    <t>Due to incorrect selection , the patient is not able to book the appointment.</t>
+  </si>
+  <si>
+    <t>No slots should be available</t>
+  </si>
+  <si>
+    <t>The slots is not available.</t>
+  </si>
+  <si>
+    <t>The article would be visible for minor injuries.</t>
+  </si>
+  <si>
+    <t>The article is visible when selected (Fever).</t>
+  </si>
+  <si>
+    <t>The incorrect details are enteredt due to which the patient would not be able to book the appointment.</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>The patient would be able to view the personal details.</t>
+  </si>
+  <si>
+    <t>The patient is able to view the personal details.</t>
+  </si>
+  <si>
+    <t>PC_006</t>
+  </si>
+  <si>
+    <t>Patient Profile</t>
+  </si>
+  <si>
+    <t>The patient is able to view the prescribed medicine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Prescription </t>
+  </si>
+  <si>
+    <t>PC_007</t>
+  </si>
+  <si>
+    <t>The patient should get the details of prescribed medicine.</t>
+  </si>
+  <si>
+    <t>Details of Prescribed medicine.</t>
+  </si>
+  <si>
+    <t>The patient should be able to view the prescription provided by the Doctor.</t>
+  </si>
+  <si>
+    <t>The patient is able to view the prescription.</t>
+  </si>
+  <si>
+    <t>PC_008</t>
+  </si>
+  <si>
+    <t>No Prescripitons has been provided</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>If doctor has not provided any prescription to a particular patient he/she should not see any prescriptions.</t>
+  </si>
+  <si>
+    <t>If doctor has not provided any prescription to a particular patient he/she is not able to see any prescriptions.</t>
+  </si>
+  <si>
+    <t>PC_009</t>
+  </si>
+  <si>
+    <t>Pay for Prescriptions</t>
+  </si>
+  <si>
+    <t>Patient should be able to pay for the presciptions from anywhere across world.</t>
+  </si>
+  <si>
+    <t>Patient is able to pay for the presciptions from anywhere across world.</t>
+  </si>
+  <si>
+    <t>PC_010</t>
+  </si>
+  <si>
+    <t>Upload medical Records</t>
+  </si>
+  <si>
+    <t>Medical Records</t>
+  </si>
+  <si>
+    <t>The patient should be able to upload medical records with appropriate file type and name.</t>
+  </si>
+  <si>
+    <t>The patient is able to upload files/medical history in the website.</t>
+  </si>
+  <si>
+    <t>PC_011</t>
+  </si>
+  <si>
+    <t>View Medical Records.</t>
+  </si>
+  <si>
+    <t>The doctor should be able to view  medical records with appropriate file type and name.</t>
+  </si>
+  <si>
+    <t>The doctor is able to retrieve patients medical records based on  patient name, dob.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +227,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,10 +255,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,15 +606,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16BB477-CE42-466A-BA98-02C52586766F}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -470,57 +641,104 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359F61A-AE6F-4D7F-8440-128054CD32DB}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE92E05-982D-4530-87FE-F4312873E2B6}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE92E05-982D-4530-87FE-F4312873E2B6}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,6 +770,232 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359F61A-AE6F-4D7F-8440-128054CD32DB}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFFA63F-78AA-436D-B6AF-DBC803D953C5}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
